--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_144.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_144.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,698 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:17.860000', '0:00:28.300000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:42.140000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(17.9, 20.7)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(10.2, 18.84)]</t>
+          <t>[('0:00:02.860000', '0:00:05.300000'), ('0:00:00.380000', '0:00:03.700000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:01:19.420000', '0:01:26.020000'), ('0:00:27.360000', '0:00:34.920000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:12.540000', '0:00:25.940000'), ('0:00:52.420000', '0:01:01.260000'), ('0:00:01.540000', '0:00:06.880000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:34.560000', '0:00:36.420000'), ('0:00:34.340000', '0:00:35.880000'), ('0:00:08.300000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(70.98, 87.2)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:02:03.220000', '0:02:07.180000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36)]</t>
+          <t>[('0:00:51.620000', '0:01:03.900000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:00:23.140000', '0:00:32.760000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:09.200000', '0:00:26.600000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (25.48, 32.8)]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58), (0.5, 3.9)]</t>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:10.203514', '0:01:27.246961')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36)]</t>
+          <t>[('0:01:24.620000', '0:01:31.740000'), ('0:00:30.240000', '0:00:38.500000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:04.860000', '0:00:07.560000'), ('0:00:02.360000', '0:00:05.680000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:01:02.500000', '0:01:12.760000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(1.64, 23.8)]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.22, 21.94)]</t>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:58.400000', '0:02:02.040000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[('0:00:00.260000', '0:00:23.340000'), ('0:01:01.440000', '0:01:25.440000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:01.820000', '0:00:20.520000'), ('0:00:55.140000', '0:01:15.900000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:12.980000', '0:00:17.200000'), ('0:00:22.600000', '0:00:25.720000'), ('0:00:17.900000', '0:00:19.440000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['G:maj', 'C:maj', 'D:9/F#', 'G:maj', 'A:7/E', 'D:min', 'G:(3,5,b7,b9)', 'C:maj', 'F:maj', 'C:maj/E', 'G:min/D', 'A:maj/C#', 'A#:maj/D', 'C:7/E', 'F:maj', 'D:min7/F', 'D:(3,5,b7,b9)/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.74, 35.46)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(36.04, 51.46)]</t>
+          <t>[('0:01:01.140000', '0:01:23.520000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'D/b7']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'F']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(31.439841, 35.781972)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(55.935192, 62.15814)]</t>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.08760545100584036</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E', 'E/2']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min/C', 'D:maj', 'D:maj/A']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(59.162887, 65.559465)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(7.08, 9.26)]</t>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(36.66, 43.94)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(3.82, 6.46)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
